--- a/mapping/mml_injection_mapping.xlsx
+++ b/mapping/mml_injection_mapping.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="83">
   <si>
     <t>item name</t>
     <phoneticPr fontId="1"/>
@@ -49,136 +49,16 @@
     <t>Table id</t>
   </si>
   <si>
-    <t>mmlPs:PrescriptionModule</t>
-  </si>
-  <si>
-    <t>mmlPs:issuedTo</t>
-  </si>
-  <si>
     <t>?</t>
   </si>
   <si>
-    <t>mmlPs:medication</t>
-  </si>
-  <si>
     <t>+</t>
   </si>
   <si>
-    <t>1.2.1</t>
-  </si>
-  <si>
-    <t>mmlPs:medicine</t>
-  </si>
-  <si>
-    <t>1.2.1.1</t>
-  </si>
-  <si>
-    <t>mmlPs:name</t>
-  </si>
-  <si>
     <t>string</t>
   </si>
   <si>
-    <t>1.2.1.2</t>
-  </si>
-  <si>
-    <t>mmlPs:code</t>
-  </si>
-  <si>
-    <t>mmlPs:system</t>
-  </si>
-  <si>
-    <t>#REQUIRED</t>
-  </si>
-  <si>
-    <t>1.2.2</t>
-  </si>
-  <si>
-    <t>mmlPs:dose</t>
-  </si>
-  <si>
     <t>decimal</t>
-  </si>
-  <si>
-    <t>1.2.3</t>
-  </si>
-  <si>
-    <t>mmlPs:doseUnit</t>
-  </si>
-  <si>
-    <t>1.2.4</t>
-  </si>
-  <si>
-    <t>mmPs:frequencyPerDay</t>
-  </si>
-  <si>
-    <t>1.2.5</t>
-  </si>
-  <si>
-    <t>mmPs:startDate</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>1.2.6</t>
-  </si>
-  <si>
-    <t>mmPs:duration</t>
-  </si>
-  <si>
-    <t>1.2.7</t>
-  </si>
-  <si>
-    <t>mmlPs:instruction</t>
-  </si>
-  <si>
-    <t>1.2.8</t>
-  </si>
-  <si>
-    <t>mmlPs:PRN</t>
-  </si>
-  <si>
-    <t>boolean</t>
-  </si>
-  <si>
-    <t>1.2.9</t>
-  </si>
-  <si>
-    <t>mmlPs:route</t>
-  </si>
-  <si>
-    <t>1.2.10</t>
-  </si>
-  <si>
-    <t>mmlPs:form</t>
-  </si>
-  <si>
-    <t>1.2.11</t>
-  </si>
-  <si>
-    <t>mmlPs:batchNo</t>
-  </si>
-  <si>
-    <t>1.2.12</t>
-  </si>
-  <si>
-    <t>mmlPs:brandSubstitutionPermitted</t>
-  </si>
-  <si>
-    <t>1.2.13</t>
-  </si>
-  <si>
-    <t>mmlPs:longTerm</t>
-  </si>
-  <si>
-    <t>1.2.14</t>
-  </si>
-  <si>
-    <t>mmlPs:additionalInstruction</t>
-  </si>
-  <si>
-    <t>mmlPs:narcoticPrescriptionLicenseNumber</t>
   </si>
   <si>
     <t>DV_TEXT</t>
@@ -195,10 +75,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Medicine</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Amount</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -215,74 +91,164 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/content[openEHR-EHR-INSTRUCTION.medication_order.v1]/activities[at0001]/description[at0002]/items[at0010]/items[at0012]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DV_DURATION</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DV_BOOLEAN</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-INSTRUCTION.medication_order.v1]/activities[at0001]/description[at0002]/items[at0010]/items[at0029]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Additional instruction</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/content[openEHR-EHR-INSTRUCTION.medication_order.v1]/activities[at0001]/description[at0002]/items[at0044]</t>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-INSTRUCTION.medication_order.v1]/activities[at0001]/description[at0002]/items[openEHR-EHR-CLUSTER.medication_admin.v1]/items[at0001]</t>
-  </si>
-  <si>
     <t>Route</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Form</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-INSTRUCTION.medication_order.v1]/activities[at0001]/description[at0002]/items[openEHR-EHR-CLUSTER.medication_ingredients.v1]/items[at0010]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DV_IDENTIFIER</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Medication instruction ID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-INSTRUCTION.medication_order.v1]/activities[at0001]/description[at0002]/items[at0023]/items[at0026]</t>
-  </si>
-  <si>
-    <t>Brand substitution permitted</t>
-  </si>
-  <si>
-    <t>Long term</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DV_BOOLEAN</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-INSTRUCTION.medication_order.v1]/activities[at0001]/description[at0002]/items[at0010]/items[at0017]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>/content[openEHR-EHR-INSTRUCTION.medication_order.v0]/activities[at0001]/description[at0002]/items[at0070]/value</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>DV_DATE_TIME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mmlInj:InjectionModule</t>
+  </si>
+  <si>
+    <t>mmlInj:medication</t>
+  </si>
+  <si>
+    <t>1.1.1</t>
+  </si>
+  <si>
+    <t>mmlInj:medicine</t>
+  </si>
+  <si>
+    <t>1.1.1.1</t>
+  </si>
+  <si>
+    <t>mmlInj:name</t>
+  </si>
+  <si>
+    <t>1.1.1.2</t>
+  </si>
+  <si>
+    <t>mmlInj:code</t>
+  </si>
+  <si>
+    <t>mmlInj:system</t>
+  </si>
+  <si>
+    <t>1.1.2</t>
+  </si>
+  <si>
+    <t>mmlInj:dose</t>
+  </si>
+  <si>
+    <t>1.1.3</t>
+  </si>
+  <si>
+    <t>mmlInj:doseUnit</t>
+  </si>
+  <si>
+    <t>1.1.4</t>
+  </si>
+  <si>
+    <t>mmInj:startDateTime</t>
+  </si>
+  <si>
+    <t>dateTime</t>
+  </si>
+  <si>
+    <t>1.1.5</t>
+  </si>
+  <si>
+    <t>mmInj:endDateTime</t>
+  </si>
+  <si>
+    <t>1.1.6</t>
+  </si>
+  <si>
+    <t>mmlInj:instruction</t>
+  </si>
+  <si>
+    <t>1.1.7</t>
+  </si>
+  <si>
+    <t>mmlInj:route</t>
+  </si>
+  <si>
+    <t>1.1.8</t>
+  </si>
+  <si>
+    <t>mmlInj:site</t>
+  </si>
+  <si>
+    <t>1.1.9</t>
+  </si>
+  <si>
+    <t>mmlInj:deliveryMethod</t>
+  </si>
+  <si>
+    <t>1.1.10</t>
+  </si>
+  <si>
+    <t>mmlInj:batchNo</t>
+  </si>
+  <si>
+    <t>1.1.11</t>
+  </si>
+  <si>
+    <t>mmlInj:additionalInstruction</t>
+  </si>
+  <si>
+    <t>mmlInj:narcoticPrescriptionLicenseNumber</t>
+  </si>
+  <si>
+    <t>mmlInj:comment</t>
+  </si>
+  <si>
+    <t>Medication</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Order start date/time</t>
+  </si>
+  <si>
+    <t>DV_DATE_TIME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Order stop date/time</t>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-INSTRUCTION.medication_order.v0]/activities[at0001]/description[at0002]/items[at0113]/items[at0013]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-INSTRUCTION.medication_order.v0]/activities[at0001]/description[at0002]/items[at0113]/items[at0012]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-INSTRUCTION.medication_order.v0]/activities[at0001]/description[at0002]/items[at0091]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Site</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_TEXT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-INSTRUCTION.medication_order.v0]/activities[at0001]/description[at0002]/items[at0133]/items[at0092]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Delivery method</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_TEXT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>/content[openEHR-EHR-INSTRUCTION.medication_order.v0]/activities[at0001]/description[at0002]/items[at0070]/mappings/target/code_string</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -295,13 +261,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/content[openEHR-EHR-INSTRUCTION.medication_order.v0]/activities[at0001]/description[at0002]/items[at0056]/items[at0057]</t>
-  </si>
-  <si>
-    <t>/context/other_context[at0001]/items[openEHR-EHR-CLUSTER.free_text.v1]/items[at0001]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>/content[openEHR-EHR-INSTRUCTION.medication_order.v0]/activities[at0001]/description[at0002]/items[at0056]/items[at0058]/items[at0144]/magnitude</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -310,39 +269,44 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/content[openEHR-EHR-INSTRUCTION.medication_order.v0]/activities[at0001]/description[at0002]/items[at0056]/items[at0058]/items[openEHR-EHR-CLUSTER.timing.v1]/items[at0001]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Daily count</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Start date/time</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DV_DATE_TIME</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-INSTRUCTION.medication_order.v0]/activities[at0001]/description[at0002]/items[at0056]/items[at0066]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Direction duration</t>
+    <t>/content[openEHR-EHR-INSTRUCTION.medication_order.v0]/activities[at0001]/description[at0002]/items[at0133]/items[at0094]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Direction sequence</t>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-INSTRUCTION.medication_order.v0]/activities[at0001]/description[at0002]/items[at0056]/items[at0057]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-INSTRUCTION.medication_order.v0]/activities[at0001]/description[at0002]/items[at0044]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>narcotic prescription license number</t>
+  </si>
+  <si>
+    <t>/context/other_context[at0001]/items[openEHR-EHR-CLUSTER.prescription_condition.v0]/items[at0004]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Administration instruction</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-INSTRUCTION.medication_order.v0]/activities[at0001]/description[at0002]/items[at0133]/items[at0108]/value</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Dose directions description</t>
+  </si>
+  <si>
+    <t>DV_TEXT</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>/content[openEHR-EHR-INSTRUCTION.medication_order.v0]/activities[at0001]/description[at0002]/items[at0009]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>As requied</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -406,7 +370,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -419,14 +383,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -729,10 +696,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -755,8 +722,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A2" s="4"/>
+    <row r="2" spans="1:14" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" s="6"/>
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
@@ -786,12 +753,12 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:14" ht="27" x14ac:dyDescent="0.15">
-      <c r="A3" s="5">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A3" s="7">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -799,454 +766,427 @@
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A4" s="5">
-        <v>1.2</v>
+      <c r="A4" s="7">
+        <v>1.1000000000000001</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A5" s="5">
-        <v>1.2</v>
+      <c r="A5" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
-        <v>14</v>
+      <c r="A6" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
+      <c r="I6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
-        <v>16</v>
+      <c r="A7" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="F7" s="3"/>
-      <c r="I7" t="s">
-        <v>55</v>
-      </c>
-      <c r="J7" t="s">
-        <v>53</v>
-      </c>
       <c r="K7" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="3"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="D8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>13</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="K8" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A9" s="5"/>
+      <c r="A9" s="7"/>
       <c r="B9" s="3"/>
-      <c r="C9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
       <c r="F9" s="3"/>
+      <c r="J9" t="s">
+        <v>14</v>
+      </c>
       <c r="K9" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A10" s="5"/>
-      <c r="B10" s="3"/>
+      <c r="A10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
+      <c r="I10" t="s">
+        <v>15</v>
+      </c>
       <c r="J10" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="K10" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A11" s="5" t="s">
-        <v>23</v>
+      <c r="A11" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
-      <c r="I11" t="s">
-        <v>56</v>
-      </c>
-      <c r="J11" t="s">
-        <v>57</v>
-      </c>
       <c r="K11" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A12" s="5" t="s">
-        <v>26</v>
+      <c r="A12" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="3"/>
+        <v>38</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F12" s="3"/>
+      <c r="I12" t="s">
+        <v>56</v>
+      </c>
+      <c r="J12" t="s">
+        <v>22</v>
+      </c>
       <c r="K12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="27" x14ac:dyDescent="0.15">
-      <c r="A13" s="5" t="s">
-        <v>28</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A13" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="3"/>
+        <v>38</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F13" s="3"/>
       <c r="I13" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="J13" t="s">
+        <v>57</v>
+      </c>
+      <c r="K13" t="s">
         <v>59</v>
       </c>
-      <c r="K13" t="s">
-        <v>85</v>
-      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A14" s="5" t="s">
-        <v>30</v>
+      <c r="A14" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F14" s="3"/>
       <c r="I14" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J14" t="s">
-        <v>88</v>
+        <v>17</v>
       </c>
       <c r="K14" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A15" s="5" t="s">
-        <v>33</v>
+      <c r="A15" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F15" s="3"/>
       <c r="I15" t="s">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="J15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K15" t="s">
         <v>61</v>
       </c>
-      <c r="K15" t="s">
-        <v>89</v>
-      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A16" s="5" t="s">
-        <v>35</v>
+      <c r="A16" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F16" s="3"/>
       <c r="I16" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="J16" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="K16" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A17" s="5" t="s">
-        <v>37</v>
+      <c r="A17" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F17" s="3"/>
       <c r="I17" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="J17" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="K17" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A18" s="5" t="s">
-        <v>40</v>
+      <c r="A18" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F18" s="3"/>
       <c r="I18" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="J18" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="K18" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A19" s="5" t="s">
-        <v>42</v>
+      <c r="A19" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F19" s="3"/>
       <c r="I19" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="J19" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="K19" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A20" s="5" t="s">
-        <v>44</v>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+      <c r="A20" s="7">
+        <v>1.2</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F20" s="3"/>
       <c r="I20" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="J20" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="K20" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="27" x14ac:dyDescent="0.15">
-      <c r="A21" s="5" t="s">
-        <v>46</v>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A21" s="7">
+        <v>1.3</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F21" s="3"/>
       <c r="I21" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="J21" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="K21" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A22" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>49</v>
-      </c>
+      <c r="A22" s="4"/>
+      <c r="B22" s="3"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
       <c r="F22" s="3"/>
-      <c r="I22" t="s">
-        <v>74</v>
-      </c>
-      <c r="J22" t="s">
-        <v>75</v>
-      </c>
-      <c r="K22" t="s">
-        <v>76</v>
-      </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A23" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>51</v>
-      </c>
+      <c r="A23" s="4"/>
+      <c r="B23" s="3"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
       <c r="F23" s="3"/>
-      <c r="I23" t="s">
-        <v>64</v>
-      </c>
-      <c r="J23" t="s">
-        <v>58</v>
-      </c>
-      <c r="K23" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="27" x14ac:dyDescent="0.15">
-      <c r="A24" s="5">
-        <v>1.3</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>11</v>
-      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A24" s="4"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="K24" s="6" t="s">
-        <v>82</v>
-      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A25" s="4"/>
+      <c r="B25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
